--- a/flume-ng-protobuf/日志收集策略.xlsx
+++ b/flume-ng-protobuf/日志收集策略.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\flume-plugins\flume-ng-protobuf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本规则" sheetId="6" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -679,14 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserAttribute.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>DSP</t>
     </r>
@@ -827,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excluded_click_through_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1556,10 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>page_session_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1753,10 +1738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excluded_sensitive_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1899,10 +1880,6 @@
       </rPr>
       <t>，详细请查看字典文件部分。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentCategory.confidence_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2992,6 +2969,230 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展信息：来自移动设备的广告请求</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议基本信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推广位通用信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否日志保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a67f5230000547ed38b0362000cf4e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qUChkFVuwyQ=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.117.22.249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.funshion.video.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt-i9500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080x1920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm_26632268_4380651_22798504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640x290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache-HttpClient/4.3.4 (java 1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQ/u+gFrMvfcd8WWZNQtge3Ru9id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP离线检测日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分隔符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Mobile.Device.device_id</t>
     </r>
     <r>
@@ -3007,227 +3208,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展信息：来自移动设备的广告请求</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议基本信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推广位通用信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否日志保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广位信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0a67f5230000547ed38b0362000cf4e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qUChkFVuwyQ=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.117.22.249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.funshion.video.mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>samsung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt-i9500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080x1920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mm_26632268_4380651_22798504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>640x290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCREEN_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache-HttpClient/4.3.4 (java 1.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AQ/u+gFrMvfcd8WWZNQtge3Ru9id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP离线检测日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次清洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次清洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分隔符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
+    <t>ContentCategory.confidence_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换不存在的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluded_click_through_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAttribute.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluded_sensitive_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3235,7 +3256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3282,6 +3303,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3402,7 +3430,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3448,6 +3476,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3468,6 +3502,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3546,6 +3583,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4793,30 +4833,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="C5" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4828,7 +4891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4845,48 +4910,48 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>105</v>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
-        <v>119</v>
+      <c r="B4" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>0</v>
@@ -4898,406 +4963,406 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
-        <v>118</v>
+      <c r="B8" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B10" s="17"/>
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="D10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="10" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>120</v>
+      <c r="B19" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -5305,163 +5370,163 @@
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -5469,181 +5534,181 @@
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="9"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>139</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B37" s="17"/>
+      <c r="C37" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="10" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="10" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="15" t="s">
-        <v>117</v>
+      <c r="B43" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -5651,115 +5716,115 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -5767,266 +5832,266 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B51" s="17"/>
+      <c r="C51" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B52" s="17"/>
+      <c r="C52" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B53" s="17"/>
+      <c r="C53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="F53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B54" s="17"/>
+      <c r="C54" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B51" s="15"/>
-      <c r="C51" s="10" t="s">
+      <c r="D54" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="F54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B52" s="15"/>
-      <c r="C52" s="10" t="s">
+      <c r="D55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="17"/>
+      <c r="C56" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="C53" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
-      <c r="C54" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="F56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="10" t="s">
+      <c r="F57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B58" s="17"/>
+      <c r="C58" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="F58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B59" s="17"/>
+      <c r="C59" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="B60" s="17"/>
+      <c r="C60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B61" s="17"/>
+      <c r="C61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
-      <c r="C60" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
-      <c r="C61" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I61" s="2"/>
     </row>

--- a/flume-ng-protobuf/日志收集策略.xlsx
+++ b/flume-ng-protobuf/日志收集策略.xlsx
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -3249,6 +3245,58 @@
   </si>
   <si>
     <t>留空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取socket的buffer的数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位表示时间，接下来4位表示数据的长度，后面是数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1418971485557</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3430,7 +3478,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3482,6 +3530,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3503,8 +3554,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4833,53 +4884,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.296875" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="36.796875" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="2:3" ht="86.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4889,17 +4949,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I61"/>
+  <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.19921875" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="37.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.19921875" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" customWidth="1"/>
@@ -4910,1197 +4970,1221 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="F2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
-        <v>111</v>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="F4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
       <c r="C6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
+    <row r="7" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
       <c r="C7" s="10" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>110</v>
-      </c>
+    <row r="8" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
       <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
+      <c r="D12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
       <c r="C13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
       <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
       <c r="C15" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="10" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
+    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
       <c r="C17" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
       <c r="C18" s="10" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>112</v>
-      </c>
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
       <c r="C19" s="10" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
       <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="18"/>
+      <c r="C27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="10" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="4" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="10" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
       <c r="C29" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B30" s="18"/>
       <c r="C30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
       <c r="C31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
       <c r="C33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
       <c r="C34" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
       <c r="C35" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
-      <c r="C36" s="24" t="s">
-        <v>58</v>
+      <c r="E35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
-      <c r="C37" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="9"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
-      <c r="C38" s="10" t="s">
-        <v>162</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
       <c r="C39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B40" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
       <c r="C40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="3" t="s">
-        <v>66</v>
+      <c r="E41" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B42" s="17"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B42" s="18"/>
       <c r="C42" s="10" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
       <c r="C43" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="4" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B44" s="17"/>
-      <c r="C44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B45" s="17"/>
-      <c r="C45" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B46" s="17"/>
+    <row r="46" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
       <c r="C46" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B48" s="17"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B48" s="18"/>
       <c r="C48" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="F49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B51" s="18"/>
+      <c r="C51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B49" s="17"/>
-      <c r="C49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B50" s="17"/>
-      <c r="C50" s="10" t="s">
+      <c r="E51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="F51" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B52" s="18"/>
+      <c r="C52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B51" s="17"/>
-      <c r="C51" s="10" t="s">
+      <c r="E52" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="F52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B52" s="17"/>
-      <c r="C52" s="10" t="s">
+      <c r="E53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="F53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B54" s="18"/>
+      <c r="C54" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B53" s="17"/>
-      <c r="C53" s="10" t="s">
+      <c r="E54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="F54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B55" s="18"/>
+      <c r="C55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B54" s="17"/>
-      <c r="C54" s="10" t="s">
+      <c r="E55" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="F55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="18"/>
+      <c r="C56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="17"/>
-      <c r="C55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B56" s="17"/>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B57" s="17"/>
+    <row r="57" spans="2:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="18"/>
       <c r="C57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B58" s="18"/>
+      <c r="C58" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B59" s="18"/>
+      <c r="C59" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B58" s="17"/>
-      <c r="C58" s="10" t="s">
+      <c r="F59" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B60" s="18"/>
+      <c r="C60" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B59" s="17"/>
-      <c r="C59" s="10" t="s">
+      <c r="F60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="B61" s="18"/>
+      <c r="C61" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B60" s="17"/>
-      <c r="C60" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B61" s="17"/>
-      <c r="C61" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B62" s="18"/>
+      <c r="C62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B18"/>
-    <mergeCell ref="B19:B42"/>
-    <mergeCell ref="B43:B61"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B43"/>
+    <mergeCell ref="B44:B62"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>

--- a/flume-ng-protobuf/日志收集策略.xlsx
+++ b/flume-ng-protobuf/日志收集策略.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\flume-plugins\flume-ng-protobuf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="194">
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <r>
       <rPr>
@@ -2999,6 +3003,530 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推广位通用信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否日志保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a67f5230000547ed38b0362000cf4e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qUChkFVuwyQ=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.117.22.249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.funshion.video.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt-i9500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080x1920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm_26632268_4380651_22798504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640x290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache-HttpClient/4.3.4 (java 1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQ/u+gFrMvfcd8WWZNQtge3Ru9id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP离线检测日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mobile.Device.device_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentCategory.confidence_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluded_click_through_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAttribute.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluded_sensitive_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频扩展信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.VideoFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.Content.keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.videoad_section_start_delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.min_ad_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.max_ad_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video.videoad_start_delay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.Content.Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.Content.Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video.Protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本字段被设置，则本次广告请求，来自视频播放器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留字段，请暂时忽略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频的描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频标题，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">utf-8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频时长，单位秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在视频中贴片资源的开始时间，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示前贴片，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示后贴片，大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值表示中插，该数值代表具体起始时间，单位秒。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片资源是一个或多个贴片的集合。该字段表示贴片在集合中的相对起始时间，单位毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片最小播放时长，视频创意时长不可小于该值，单位毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片最大播放时长，视频创意时长不可大于该值，单位毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本期使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">VAST 3.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本，向下兼容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分隔符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换不存在的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取socket的buffer的数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位表示时间，接下来4位表示数据的长度，后面是数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1418971485557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">1) </t>
     </r>
     <r>
@@ -3012,291 +3540,6 @@
       </rPr>
       <t>协议基本信息</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推广位通用信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否日志保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广位信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0a67f5230000547ed38b0362000cf4e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qUChkFVuwyQ=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.117.22.249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.funshion.video.mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>samsung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt-i9500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080x1920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mm_26632268_4380651_22798504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>640x290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCREEN_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache-HttpClient/4.3.4 (java 1.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AQ/u+gFrMvfcd8WWZNQtge3Ru9id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP离线检测日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次清洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次清洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分隔符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Mobile.Device.device_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentCategory.confidence_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换不存在的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\0x01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excluded_click_through_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserAttribute.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_session_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excluded_sensitive_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取socket的buffer的数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位表示时间，接下来4位表示数据的长度，后面是数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1418971485557</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3410,7 +3653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3464,6 +3707,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -3533,14 +3789,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4886,47 +5142,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.296875" customWidth="1"/>
-    <col min="2" max="2" width="36.796875" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="39.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -4935,10 +5191,10 @@
     </row>
     <row r="7" spans="2:3" ht="86.25" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4949,17 +5205,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I62"/>
+  <dimension ref="B1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.19921875" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
     <col min="4" max="4" width="37.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.19921875" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" customWidth="1"/>
@@ -4972,13 +5228,13 @@
     <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23"/>
       <c r="C2" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>144</v>
@@ -4986,10 +5242,10 @@
       <c r="G2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
@@ -5011,40 +5267,38 @@
     </row>
     <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>112</v>
@@ -5054,31 +5308,33 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>112</v>
@@ -5088,13 +5344,13 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>112</v>
@@ -5104,17 +5360,17 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>109</v>
+      <c r="B9" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>112</v>
@@ -5124,15 +5380,15 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>112</v>
@@ -5146,15 +5402,15 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>112</v>
@@ -5168,15 +5424,15 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>112</v>
@@ -5186,13 +5442,13 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>112</v>
@@ -5202,15 +5458,15 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>112</v>
@@ -5220,13 +5476,13 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>112</v>
@@ -5236,13 +5492,13 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>112</v>
@@ -5252,13 +5508,13 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>112</v>
@@ -5268,13 +5524,13 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>112</v>
@@ -5284,13 +5540,13 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>112</v>
@@ -5300,15 +5556,15 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>112</v>
@@ -5322,13 +5578,13 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>112</v>
@@ -5342,15 +5598,15 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>139</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>112</v>
@@ -5364,15 +5620,15 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>112</v>
@@ -5386,13 +5642,13 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>112</v>
@@ -5402,13 +5658,13 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>112</v>
@@ -5418,15 +5674,15 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>112</v>
@@ -5440,13 +5696,13 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -5454,13 +5710,13 @@
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>112</v>
@@ -5474,15 +5730,15 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>112</v>
@@ -5496,15 +5752,15 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>112</v>
@@ -5518,13 +5774,13 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>112</v>
@@ -5538,15 +5794,15 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>112</v>
@@ -5560,13 +5816,13 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>112</v>
@@ -5580,15 +5836,15 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>112</v>
@@ -5602,15 +5858,15 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>137</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -5618,15 +5874,15 @@
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>112</v>
@@ -5640,15 +5896,15 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>112</v>
@@ -5662,13 +5918,13 @@
       </c>
     </row>
     <row r="38" spans="2:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>112</v>
@@ -5682,13 +5938,13 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>112</v>
@@ -5702,15 +5958,15 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>112</v>
@@ -5724,13 +5980,13 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>112</v>
@@ -5744,13 +6000,13 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>112</v>
@@ -5764,13 +6020,13 @@
       </c>
     </row>
     <row r="43" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>112</v>
@@ -5784,15 +6040,15 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
-        <v>108</v>
+      <c r="B44" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -5800,15 +6056,15 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>112</v>
@@ -5820,15 +6076,15 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>112</v>
@@ -5840,13 +6096,13 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>112</v>
@@ -5858,13 +6114,13 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>112</v>
@@ -5878,15 +6134,15 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>112</v>
@@ -5902,13 +6158,13 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -5916,15 +6172,15 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>112</v>
@@ -5938,15 +6194,15 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>112</v>
@@ -5960,15 +6216,15 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>112</v>
@@ -5982,15 +6238,15 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>112</v>
@@ -6004,15 +6260,15 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>112</v>
@@ -6026,15 +6282,15 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>112</v>
@@ -6048,15 +6304,15 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>112</v>
@@ -6070,15 +6326,15 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>112</v>
@@ -6092,15 +6348,15 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>112</v>
@@ -6114,15 +6370,15 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>112</v>
@@ -6136,15 +6392,15 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>112</v>
@@ -6158,15 +6414,15 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>112</v>
@@ -6178,18 +6434,234 @@
         <v>112</v>
       </c>
       <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B64" s="20"/>
+      <c r="C64" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B65" s="20"/>
+      <c r="C65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B66" s="20"/>
+      <c r="C66" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B67" s="20"/>
+      <c r="C67" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B68" s="20"/>
+      <c r="C68" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B69" s="20"/>
+      <c r="C69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B70" s="20"/>
+      <c r="C70" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B71" s="20"/>
+      <c r="C71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B72" s="20"/>
+      <c r="C72" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="B73" s="20"/>
+      <c r="C73" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B63:B73"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B19"/>
     <mergeCell ref="B20:B43"/>
     <mergeCell ref="B44:B62"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flume-ng-protobuf/日志收集策略.xlsx
+++ b/flume-ng-protobuf/日志收集策略.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\flume-plugins\flume-ng-protobuf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="246">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3540,6 +3540,214 @@
       </rPr>
       <t>协议基本信息</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段简写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ectu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzabc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzvt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzmcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzvs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adzsai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdlati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mddpxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvassd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vminad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmaxad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3734,7 +3942,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3795,8 +4003,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3810,8 +4024,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5189,7 +5403,7 @@
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="2:3" ht="86.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" ht="29.25" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>186</v>
       </c>
@@ -5205,10 +5419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I73"/>
+  <dimension ref="B1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5216,1445 +5430,1622 @@
     <col min="1" max="1" width="2.19921875" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+    <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="25"/>
+      <c r="C2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="11" t="s">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
       <c r="C7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
+      <c r="G10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
+      <c r="G11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
       <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
       <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B16" s="27"/>
       <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
       <c r="C17" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B18" s="27"/>
       <c r="C18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B19" s="27"/>
       <c r="C19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="73.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
+      <c r="G20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
       <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
+      <c r="G21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
       <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
+      <c r="G22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="27"/>
       <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
+      <c r="G23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
       <c r="C24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
       <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
       <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
+      <c r="G26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="20"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="2:10" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="27"/>
       <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
+      <c r="G28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="27"/>
       <c r="C29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
+      <c r="G29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B30" s="27"/>
       <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
+      <c r="G30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="27"/>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
+      <c r="G31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B32" s="27"/>
       <c r="C32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
+      <c r="G32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="57.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
       <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B34" s="20"/>
+      <c r="G33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
       <c r="C34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B35" s="20"/>
+      <c r="G34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B35" s="27"/>
       <c r="C35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="2:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="2:10" ht="73.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="27"/>
       <c r="C36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="20"/>
+      <c r="G36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="27"/>
       <c r="C37" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B38" s="20"/>
+      <c r="G37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B38" s="27"/>
       <c r="C38" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B39" s="20"/>
+      <c r="G38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B39" s="27"/>
       <c r="C39" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="20"/>
+      <c r="G39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="57.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="27"/>
       <c r="C40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B41" s="20"/>
+      <c r="G40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B41" s="27"/>
       <c r="C41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B42" s="20"/>
+      <c r="G41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B42" s="27"/>
       <c r="C42" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B43" s="20"/>
+      <c r="G42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="B43" s="27"/>
       <c r="C43" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="20" t="s">
+      <c r="G43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B45" s="20"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B45" s="27"/>
       <c r="C45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="2"/>
+      <c r="G45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:9" ht="44.25" x14ac:dyDescent="0.2">
-      <c r="B46" s="20"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="2:10" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="27"/>
       <c r="C46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="2"/>
+      <c r="G46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B47" s="20"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B47" s="27"/>
       <c r="C47" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="2"/>
+      <c r="G47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B48" s="20"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B48" s="27"/>
       <c r="C48" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B49" s="20"/>
+      <c r="G48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B49" s="27"/>
       <c r="C49" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B50" s="20"/>
+      <c r="G49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B50" s="27"/>
       <c r="C50" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B51" s="20"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B51" s="27"/>
       <c r="C51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B52" s="20"/>
+      <c r="G51" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B52" s="27"/>
       <c r="C52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B53" s="20"/>
+      <c r="G52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B53" s="27"/>
       <c r="C53" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B54" s="20"/>
+      <c r="G53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B54" s="27"/>
       <c r="C54" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B55" s="20"/>
+      <c r="G54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B55" s="27"/>
       <c r="C55" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="20"/>
+      <c r="G55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="2:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="27"/>
       <c r="C56" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="20"/>
+      <c r="G56" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="2:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="27"/>
       <c r="C57" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B58" s="20"/>
+      <c r="G57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B58" s="27"/>
       <c r="C58" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B59" s="20"/>
+      <c r="G58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B59" s="27"/>
       <c r="C59" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B60" s="20"/>
+      <c r="G59" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B60" s="27"/>
       <c r="C60" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B61" s="20"/>
+      <c r="G60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="2:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="B61" s="27"/>
       <c r="C61" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B62" s="20"/>
+      <c r="G61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B62" s="27"/>
       <c r="C62" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="20" t="s">
+      <c r="G62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="27" t="s">
         <v>157</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-    </row>
-    <row r="64" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B64" s="20"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B64" s="27"/>
       <c r="C64" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B65" s="20"/>
+      <c r="G64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B65" s="27"/>
       <c r="C65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B66" s="20"/>
+      <c r="G65" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B66" s="27"/>
       <c r="C66" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B67" s="20"/>
+      <c r="G66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B67" s="27"/>
       <c r="C67" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B68" s="20"/>
+      <c r="G67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B68" s="27"/>
       <c r="C68" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="3" t="s">
+      <c r="D68" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B69" s="20"/>
+      <c r="G68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B69" s="27"/>
       <c r="C69" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B70" s="20"/>
+      <c r="G69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="B70" s="27"/>
       <c r="C70" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="3" t="s">
+      <c r="D70" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B71" s="20"/>
+      <c r="G70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B71" s="27"/>
       <c r="C71" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B72" s="20"/>
+      <c r="G71" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B72" s="27"/>
       <c r="C72" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B73" s="20"/>
+      <c r="G72" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B73" s="27"/>
       <c r="C73" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="8" t="s">
+      <c r="G73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="8" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B63:B73"/>
